--- a/output/experiments/thesis_topic3/6h-bat-12months-0.6dc-minimize-cap.xlsx
+++ b/output/experiments/thesis_topic3/6h-bat-12months-0.6dc-minimize-cap.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Coding_project\Energy_grid_new\output\experiments\thesis_topic3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56248A1D-FA96-49AB-A49F-5C54163F26BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="98">
   <si>
     <t>status</t>
   </si>
@@ -79,6 +73,9 @@
     <t>disturbance_scale</t>
   </si>
   <si>
+    <t>p_grid_max_method</t>
+  </si>
+  <si>
     <t>TCO</t>
   </si>
   <si>
@@ -187,6 +184,12 @@
     <t>id</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
     <t>Sum</t>
   </si>
   <si>
@@ -271,17 +274,47 @@
     <t>normal</t>
   </si>
   <si>
-    <t>p_grid_max_method</t>
-  </si>
-  <si>
     <t>minimize_cap</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-normal-0.03-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-RBC-MSC-GT-unconscious-1.5-0.6-0.6-unif-438-unconscious-01-01-02-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-GT-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Prediction-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Disturbance-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-normal-0.03-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Simple-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
+  </si>
+  <si>
+    <t>MPC-MPC-optimal-Naive-unconscious-1.5-0.6-0.6-flex-438-unconscious-02-01-03-01-Sum-ALL-Sum-nan-nan-minimize_cap-2023-09-01_001.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,23 +373,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -398,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,27 +455,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,24 +489,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,18 +664,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BD73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:56">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -746,153 +733,153 @@
         <v>18</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2">
         <v>438</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -907,51 +894,54 @@
         <v>0.6</v>
       </c>
       <c r="R2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
+      <c r="B3" t="s">
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H3">
         <v>438</v>
       </c>
       <c r="I3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -966,51 +956,54 @@
         <v>0.6</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H4">
         <v>438</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1025,57 +1018,60 @@
         <v>0.6</v>
       </c>
       <c r="R4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T4">
         <v>0.03</v>
       </c>
       <c r="U4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
+      <c r="B5" t="s">
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>438</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1090,51 +1086,54 @@
         <v>0.6</v>
       </c>
       <c r="R5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
+      <c r="B6" t="s">
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>438</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1149,51 +1148,54 @@
         <v>0.6</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
+      <c r="B7" t="s">
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H7">
         <v>438</v>
       </c>
       <c r="I7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1208,51 +1210,150 @@
         <v>0.6</v>
       </c>
       <c r="R7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="V7">
+        <v>457.0636065015921</v>
+      </c>
+      <c r="W7">
+        <v>30.98958333333333</v>
+      </c>
+      <c r="X7">
+        <v>1089.0524344</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7">
+        <v>457.0636065015921</v>
+      </c>
+      <c r="AA7">
+        <v>439.0636065015921</v>
+      </c>
+      <c r="AB7">
+        <v>18</v>
+      </c>
+      <c r="AC7">
+        <v>18</v>
+      </c>
+      <c r="AD7">
+        <v>438</v>
+      </c>
+      <c r="AE7">
+        <v>5.763333323363991</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0.1916608520379832</v>
+      </c>
+      <c r="AI7">
+        <v>0.1916608520379832</v>
+      </c>
+      <c r="AJ7">
+        <v>0.1841128974697131</v>
+      </c>
+      <c r="AL7">
+        <v>121.7518385847668</v>
+      </c>
+      <c r="AM7">
+        <v>317.3117679168253</v>
+      </c>
+      <c r="AO7">
+        <v>62.56941176470588</v>
+      </c>
+      <c r="AP7">
+        <v>1823.944479731092</v>
+      </c>
+      <c r="AQ7">
+        <v>560.8075530471592</v>
+      </c>
+      <c r="AR7">
+        <v>2384.752032778251</v>
+      </c>
+      <c r="AS7">
+        <v>604.9537259916899</v>
+      </c>
+      <c r="AT7">
+        <v>1781.577252095055</v>
+      </c>
+      <c r="AU7">
+        <v>3.444639531596654E-15</v>
+      </c>
+      <c r="AV7">
+        <v>317.3117679168253</v>
+      </c>
+      <c r="AW7">
+        <v>2.584403951348714E-16</v>
+      </c>
+      <c r="AX7">
+        <v>202.9197309746113</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
+        <v>0</v>
+      </c>
+      <c r="BA7">
+        <v>0</v>
+      </c>
+      <c r="BB7">
+        <v>0</v>
+      </c>
+      <c r="BC7">
+        <v>0</v>
+      </c>
+      <c r="BD7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:56">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H8">
         <v>438</v>
       </c>
       <c r="I8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -1267,51 +1368,54 @@
         <v>0.6</v>
       </c>
       <c r="R8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:56">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H9">
         <v>438</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1326,51 +1430,54 @@
         <v>0.6</v>
       </c>
       <c r="R9" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:56">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
+      <c r="B10" t="s">
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H10">
         <v>438</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1385,57 +1492,60 @@
         <v>0.6</v>
       </c>
       <c r="R10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T10">
         <v>0.03</v>
       </c>
       <c r="U10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
+      <c r="B11" t="s">
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H11">
         <v>438</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>2</v>
@@ -1450,51 +1560,54 @@
         <v>0.6</v>
       </c>
       <c r="R11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:56">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H12">
         <v>438</v>
       </c>
       <c r="I12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1509,13 +1622,16 @@
         <v>0.6</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:56">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1523,37 +1639,37 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>438</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1568,13 +1684,13 @@
         <v>0.6</v>
       </c>
       <c r="R13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:56">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1582,37 +1698,37 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H14">
         <v>438</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1627,13 +1743,13 @@
         <v>0.6</v>
       </c>
       <c r="R14" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:56">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1641,37 +1757,37 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H15">
         <v>438</v>
       </c>
       <c r="I15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M15" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1686,13 +1802,13 @@
         <v>0.6</v>
       </c>
       <c r="R15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:56">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1700,37 +1816,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H16">
         <v>438</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1745,19 +1861,19 @@
         <v>0.6</v>
       </c>
       <c r="R16" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T16">
         <v>0.03</v>
       </c>
       <c r="U16" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1765,37 +1881,37 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <v>438</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1810,13 +1926,13 @@
         <v>0.6</v>
       </c>
       <c r="R17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1824,37 +1940,37 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H18">
         <v>438</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1869,13 +1985,13 @@
         <v>0.6</v>
       </c>
       <c r="R18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U18" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1883,37 +1999,37 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H19">
         <v>438</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1928,13 +2044,13 @@
         <v>0.6</v>
       </c>
       <c r="R19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1942,37 +2058,37 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H20">
         <v>438</v>
       </c>
       <c r="I20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -1987,13 +2103,13 @@
         <v>0.6</v>
       </c>
       <c r="R20" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2001,37 +2117,37 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H21">
         <v>438</v>
       </c>
       <c r="I21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M21" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N21">
         <v>4</v>
@@ -2046,13 +2162,13 @@
         <v>0.6</v>
       </c>
       <c r="R21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2060,37 +2176,37 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H22">
         <v>438</v>
       </c>
       <c r="I22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M22" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -2105,19 +2221,19 @@
         <v>0.6</v>
       </c>
       <c r="R22" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T22">
         <v>0.03</v>
       </c>
       <c r="U22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2125,37 +2241,37 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H23">
         <v>438</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N23">
         <v>4</v>
@@ -2170,13 +2286,13 @@
         <v>0.6</v>
       </c>
       <c r="R23" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2184,37 +2300,37 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H24">
         <v>438</v>
       </c>
       <c r="I24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N24">
         <v>4</v>
@@ -2229,13 +2345,13 @@
         <v>0.6</v>
       </c>
       <c r="R24" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2243,37 +2359,37 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H25">
         <v>438</v>
       </c>
       <c r="I25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N25">
         <v>4</v>
@@ -2288,13 +2404,13 @@
         <v>0.6</v>
       </c>
       <c r="R25" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2302,37 +2418,37 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H26">
         <v>438</v>
       </c>
       <c r="I26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -2347,13 +2463,13 @@
         <v>0.6</v>
       </c>
       <c r="R26" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2361,37 +2477,37 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D27" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H27">
         <v>438</v>
       </c>
       <c r="I27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L27" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2406,13 +2522,13 @@
         <v>0.6</v>
       </c>
       <c r="R27" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U27" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2420,37 +2536,37 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H28">
         <v>438</v>
       </c>
       <c r="I28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -2465,19 +2581,19 @@
         <v>0.6</v>
       </c>
       <c r="R28" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S28" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T28">
         <v>0.03</v>
       </c>
       <c r="U28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2485,37 +2601,37 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H29">
         <v>438</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L29" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M29" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N29">
         <v>5</v>
@@ -2530,13 +2646,13 @@
         <v>0.6</v>
       </c>
       <c r="R29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2544,37 +2660,37 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H30">
         <v>438</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L30" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N30">
         <v>5</v>
@@ -2589,13 +2705,13 @@
         <v>0.6</v>
       </c>
       <c r="R30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U30" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2603,37 +2719,37 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H31">
         <v>438</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M31" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="N31">
         <v>5</v>
@@ -2648,13 +2764,13 @@
         <v>0.6</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U31" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2662,37 +2778,37 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H32">
         <v>438</v>
       </c>
       <c r="I32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M32" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N32">
         <v>6</v>
@@ -2707,13 +2823,13 @@
         <v>0.6</v>
       </c>
       <c r="R32" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2721,37 +2837,37 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G33" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H33">
         <v>438</v>
       </c>
       <c r="I33" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L33" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M33" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N33">
         <v>6</v>
@@ -2766,13 +2882,13 @@
         <v>0.6</v>
       </c>
       <c r="R33" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2780,37 +2896,37 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H34">
         <v>438</v>
       </c>
       <c r="I34" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M34" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N34">
         <v>6</v>
@@ -2825,19 +2941,19 @@
         <v>0.6</v>
       </c>
       <c r="R34" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T34">
         <v>0.03</v>
       </c>
       <c r="U34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2845,37 +2961,37 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G35" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H35">
         <v>438</v>
       </c>
       <c r="I35" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N35">
         <v>6</v>
@@ -2890,13 +3006,13 @@
         <v>0.6</v>
       </c>
       <c r="R35" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U35" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2904,37 +3020,37 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H36">
         <v>438</v>
       </c>
       <c r="I36" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N36">
         <v>6</v>
@@ -2949,13 +3065,13 @@
         <v>0.6</v>
       </c>
       <c r="R36" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U36" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2963,37 +3079,37 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H37">
         <v>438</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M37" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="N37">
         <v>6</v>
@@ -3008,13 +3124,13 @@
         <v>0.6</v>
       </c>
       <c r="R37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U37" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3022,37 +3138,37 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H38">
         <v>438</v>
       </c>
       <c r="I38" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M38" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N38">
         <v>7</v>
@@ -3067,13 +3183,13 @@
         <v>0.6</v>
       </c>
       <c r="R38" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3081,37 +3197,37 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H39">
         <v>438</v>
       </c>
       <c r="I39" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N39">
         <v>7</v>
@@ -3126,13 +3242,13 @@
         <v>0.6</v>
       </c>
       <c r="R39" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3140,37 +3256,37 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H40">
         <v>438</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K40" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M40" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N40">
         <v>7</v>
@@ -3185,19 +3301,19 @@
         <v>0.6</v>
       </c>
       <c r="R40" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S40" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T40">
         <v>0.03</v>
       </c>
       <c r="U40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3205,37 +3321,37 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G41" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H41">
         <v>438</v>
       </c>
       <c r="I41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L41" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M41" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N41">
         <v>7</v>
@@ -3250,13 +3366,13 @@
         <v>0.6</v>
       </c>
       <c r="R41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3264,37 +3380,37 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H42">
         <v>438</v>
       </c>
       <c r="I42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L42" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M42" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N42">
         <v>7</v>
@@ -3309,13 +3425,13 @@
         <v>0.6</v>
       </c>
       <c r="R42" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3323,37 +3439,37 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G43" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H43">
         <v>438</v>
       </c>
       <c r="I43" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="N43">
         <v>7</v>
@@ -3368,13 +3484,13 @@
         <v>0.6</v>
       </c>
       <c r="R43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3382,37 +3498,37 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H44">
         <v>438</v>
       </c>
       <c r="I44" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L44" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M44" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N44">
         <v>8</v>
@@ -3427,13 +3543,13 @@
         <v>0.6</v>
       </c>
       <c r="R44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3441,37 +3557,37 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H45">
         <v>438</v>
       </c>
       <c r="I45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M45" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N45">
         <v>8</v>
@@ -3486,13 +3602,13 @@
         <v>0.6</v>
       </c>
       <c r="R45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U45" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3500,37 +3616,37 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H46">
         <v>438</v>
       </c>
       <c r="I46" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M46" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N46">
         <v>8</v>
@@ -3545,19 +3661,19 @@
         <v>0.6</v>
       </c>
       <c r="R46" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T46">
         <v>0.03</v>
       </c>
       <c r="U46" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3565,37 +3681,37 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H47">
         <v>438</v>
       </c>
       <c r="I47" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N47">
         <v>8</v>
@@ -3610,13 +3726,13 @@
         <v>0.6</v>
       </c>
       <c r="R47" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U47" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3624,37 +3740,37 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H48">
         <v>438</v>
       </c>
       <c r="I48" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K48" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L48" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M48" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N48">
         <v>8</v>
@@ -3669,13 +3785,13 @@
         <v>0.6</v>
       </c>
       <c r="R48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3683,37 +3799,37 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F49" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G49" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H49">
         <v>438</v>
       </c>
       <c r="I49" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M49" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="N49">
         <v>8</v>
@@ -3728,13 +3844,13 @@
         <v>0.6</v>
       </c>
       <c r="R49" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U49" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3742,37 +3858,37 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H50">
         <v>438</v>
       </c>
       <c r="I50" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L50" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M50" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N50">
         <v>9</v>
@@ -3787,13 +3903,13 @@
         <v>0.6</v>
       </c>
       <c r="R50" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3801,37 +3917,37 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F51" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H51">
         <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L51" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N51">
         <v>9</v>
@@ -3846,13 +3962,13 @@
         <v>0.6</v>
       </c>
       <c r="R51" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U51" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3860,37 +3976,37 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E52" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H52">
         <v>438</v>
       </c>
       <c r="I52" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L52" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M52" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N52">
         <v>9</v>
@@ -3905,19 +4021,19 @@
         <v>0.6</v>
       </c>
       <c r="R52" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T52">
         <v>0.03</v>
       </c>
       <c r="U52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3925,37 +4041,37 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H53">
         <v>438</v>
       </c>
       <c r="I53" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K53" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L53" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N53">
         <v>9</v>
@@ -3970,13 +4086,13 @@
         <v>0.6</v>
       </c>
       <c r="R53" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3984,37 +4100,37 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G54" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H54">
         <v>438</v>
       </c>
       <c r="I54" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L54" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N54">
         <v>9</v>
@@ -4029,13 +4145,13 @@
         <v>0.6</v>
       </c>
       <c r="R54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4043,37 +4159,37 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G55" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H55">
         <v>438</v>
       </c>
       <c r="I55" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K55" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M55" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="N55">
         <v>9</v>
@@ -4088,13 +4204,13 @@
         <v>0.6</v>
       </c>
       <c r="R55" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4102,37 +4218,37 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E56" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F56" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H56">
         <v>438</v>
       </c>
       <c r="I56" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K56" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L56" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N56">
         <v>10</v>
@@ -4147,13 +4263,13 @@
         <v>0.6</v>
       </c>
       <c r="R56" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4161,37 +4277,37 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F57" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H57">
         <v>438</v>
       </c>
       <c r="I57" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L57" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M57" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N57">
         <v>10</v>
@@ -4206,13 +4322,13 @@
         <v>0.6</v>
       </c>
       <c r="R57" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4220,37 +4336,37 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F58" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H58">
         <v>438</v>
       </c>
       <c r="I58" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K58" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L58" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M58" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N58">
         <v>10</v>
@@ -4265,19 +4381,19 @@
         <v>0.6</v>
       </c>
       <c r="R58" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S58" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T58">
         <v>0.03</v>
       </c>
       <c r="U58" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4285,37 +4401,37 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H59">
         <v>438</v>
       </c>
       <c r="I59" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M59" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="N59">
         <v>10</v>
@@ -4330,51 +4446,51 @@
         <v>0.6</v>
       </c>
       <c r="R59" t="s">
+        <v>83</v>
+      </c>
+      <c r="U59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>59</v>
+      </c>
+      <c r="F60" t="s">
+        <v>60</v>
+      </c>
+      <c r="G60" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60">
+        <v>438</v>
+      </c>
+      <c r="I60" t="s">
+        <v>68</v>
+      </c>
+      <c r="J60" t="s">
+        <v>69</v>
+      </c>
+      <c r="K60" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" t="s">
+        <v>79</v>
+      </c>
+      <c r="M60" t="s">
         <v>80</v>
-      </c>
-      <c r="U59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A60" s="1">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
-      <c r="C60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D60" t="s">
-        <v>55</v>
-      </c>
-      <c r="E60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
-      <c r="G60" t="s">
-        <v>59</v>
-      </c>
-      <c r="H60">
-        <v>438</v>
-      </c>
-      <c r="I60" t="s">
-        <v>65</v>
-      </c>
-      <c r="J60" t="s">
-        <v>66</v>
-      </c>
-      <c r="K60" t="s">
-        <v>66</v>
-      </c>
-      <c r="L60" t="s">
-        <v>76</v>
-      </c>
-      <c r="M60" t="s">
-        <v>77</v>
       </c>
       <c r="N60">
         <v>10</v>
@@ -4389,51 +4505,51 @@
         <v>0.6</v>
       </c>
       <c r="R60" t="s">
+        <v>83</v>
+      </c>
+      <c r="U60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="F61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H61">
+        <v>438</v>
+      </c>
+      <c r="I61" t="s">
+        <v>64</v>
+      </c>
+      <c r="J61" t="s">
+        <v>69</v>
+      </c>
+      <c r="K61" t="s">
+        <v>69</v>
+      </c>
+      <c r="L61" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" t="s">
         <v>80</v>
-      </c>
-      <c r="U60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A61" s="1">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" t="s">
-        <v>55</v>
-      </c>
-      <c r="E61" t="s">
-        <v>56</v>
-      </c>
-      <c r="F61" t="s">
-        <v>58</v>
-      </c>
-      <c r="G61" t="s">
-        <v>60</v>
-      </c>
-      <c r="H61">
-        <v>438</v>
-      </c>
-      <c r="I61" t="s">
-        <v>61</v>
-      </c>
-      <c r="J61" t="s">
-        <v>66</v>
-      </c>
-      <c r="K61" t="s">
-        <v>66</v>
-      </c>
-      <c r="L61" t="s">
-        <v>76</v>
-      </c>
-      <c r="M61" t="s">
-        <v>77</v>
       </c>
       <c r="N61">
         <v>10</v>
@@ -4448,13 +4564,13 @@
         <v>0.6</v>
       </c>
       <c r="R61" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4462,37 +4578,37 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E62" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H62">
         <v>438</v>
       </c>
       <c r="I62" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K62" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L62" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M62" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N62">
         <v>11</v>
@@ -4507,51 +4623,51 @@
         <v>0.6</v>
       </c>
       <c r="R62" t="s">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63">
+        <v>438</v>
+      </c>
+      <c r="I63" t="s">
+        <v>65</v>
+      </c>
+      <c r="J63" t="s">
+        <v>69</v>
+      </c>
+      <c r="K63" t="s">
+        <v>69</v>
+      </c>
+      <c r="L63" t="s">
         <v>80</v>
       </c>
-      <c r="U62" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A63" s="1">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
-      </c>
-      <c r="C63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" t="s">
-        <v>55</v>
-      </c>
-      <c r="E63" t="s">
-        <v>56</v>
-      </c>
-      <c r="F63" t="s">
-        <v>57</v>
-      </c>
-      <c r="G63" t="s">
-        <v>59</v>
-      </c>
-      <c r="H63">
-        <v>438</v>
-      </c>
-      <c r="I63" t="s">
-        <v>62</v>
-      </c>
-      <c r="J63" t="s">
-        <v>66</v>
-      </c>
-      <c r="K63" t="s">
-        <v>66</v>
-      </c>
-      <c r="L63" t="s">
-        <v>77</v>
-      </c>
       <c r="M63" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N63">
         <v>11</v>
@@ -4566,13 +4682,13 @@
         <v>0.6</v>
       </c>
       <c r="R63" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4580,37 +4696,37 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H64">
         <v>438</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K64" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L64" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M64" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N64">
         <v>11</v>
@@ -4625,19 +4741,19 @@
         <v>0.6</v>
       </c>
       <c r="R64" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S64" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T64">
         <v>0.03</v>
       </c>
       <c r="U64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4645,37 +4761,37 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F65" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H65">
         <v>438</v>
       </c>
       <c r="I65" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K65" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L65" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M65" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N65">
         <v>11</v>
@@ -4690,13 +4806,13 @@
         <v>0.6</v>
       </c>
       <c r="R65" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U65" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4704,37 +4820,37 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E66" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F66" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H66">
         <v>438</v>
       </c>
       <c r="I66" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L66" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M66" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N66">
         <v>11</v>
@@ -4749,13 +4865,13 @@
         <v>0.6</v>
       </c>
       <c r="R66" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4763,37 +4879,37 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G67" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H67">
         <v>438</v>
       </c>
       <c r="I67" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K67" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L67" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M67" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N67">
         <v>11</v>
@@ -4808,13 +4924,13 @@
         <v>0.6</v>
       </c>
       <c r="R67" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4822,37 +4938,37 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H68">
         <v>438</v>
       </c>
       <c r="I68" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L68" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M68" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N68">
         <v>12</v>
@@ -4867,13 +4983,13 @@
         <v>0.6</v>
       </c>
       <c r="R68" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4881,37 +4997,37 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F69" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H69">
         <v>438</v>
       </c>
       <c r="I69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K69" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L69" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N69">
         <v>12</v>
@@ -4926,13 +5042,13 @@
         <v>0.6</v>
       </c>
       <c r="R69" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4940,37 +5056,37 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F70" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H70">
         <v>438</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K70" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M70" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N70">
         <v>12</v>
@@ -4985,19 +5101,19 @@
         <v>0.6</v>
       </c>
       <c r="R70" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S70" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T70">
         <v>0.03</v>
       </c>
       <c r="U70" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -5005,37 +5121,37 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F71" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H71">
         <v>438</v>
       </c>
       <c r="I71" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K71" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L71" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N71">
         <v>12</v>
@@ -5050,13 +5166,13 @@
         <v>0.6</v>
       </c>
       <c r="R71" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -5064,37 +5180,37 @@
         <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F72" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H72">
         <v>438</v>
       </c>
       <c r="I72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K72" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L72" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M72" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N72">
         <v>12</v>
@@ -5109,13 +5225,13 @@
         <v>0.6</v>
       </c>
       <c r="R72" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="U72" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -5123,37 +5239,37 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F73" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G73" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H73">
         <v>438</v>
       </c>
       <c r="I73" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L73" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M73" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N73">
         <v>12</v>
@@ -5168,10 +5284,10 @@
         <v>0.6</v>
       </c>
       <c r="R73" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="U73" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
